--- a/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="K114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="L114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="M114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="N114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="O114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="P114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="Q114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="R114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="S114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="T114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="U114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="V114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="W114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="X114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="Y114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="Z114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AA114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AB114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AC114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AD114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AE114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AF114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AG114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AH114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AI114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AJ114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AK114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AL114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AM114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AN114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AO114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AP114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AQ114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AR114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
       <c r="AS114" t="n">
-        <v>622448667.1</v>
+        <v>16463.89538</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="K100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="L100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="M100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="N100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="O100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="P100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="Q100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="R100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="S100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="T100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="U100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="V100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="W100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="X100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="Y100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="Z100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AA100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AB100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AC100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AD100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AE100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AF100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AG100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AH100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AI100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AJ100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AK100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AL100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AM100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AN100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AO100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AP100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AQ100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AR100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
       <c r="AS100" t="n">
-        <v>10879716.03</v>
+        <v>1440645.06</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="K101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="L101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="M101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="N101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="O101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="P101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="Q101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="R101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="S101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="T101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="U101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="V101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="W101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="X101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="Y101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="Z101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AA101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AB101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AC101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AD101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AE101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AF101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AG101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AH101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AI101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AJ101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AK101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AL101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AM101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AN101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AO101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AP101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AQ101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AR101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
       <c r="AS101" t="n">
-        <v>31023531.19</v>
+        <v>3102353.119</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="K103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="L103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="M103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="N103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="O103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="P103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="Q103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="R103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="S103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="T103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="U103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="V103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="W103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="X103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="Y103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="Z103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AA103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AB103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AC103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AD103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AE103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AF103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AG103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AH103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AI103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AJ103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AK103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AL103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AM103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AN103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AO103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AP103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AR103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
       <c r="AS103" t="n">
-        <v>1326723.981</v>
+        <v>1301137.664</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="K105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="L105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="M105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="N105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="O105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="P105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="Q105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="R105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="S105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="T105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="U105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="V105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="W105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="X105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="Y105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="Z105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AA105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AB105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AC105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AD105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AE105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AF105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AG105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AH105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AI105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AJ105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AK105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AL105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AM105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AN105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AO105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AP105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AQ105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AR105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
       <c r="AS105" t="n">
-        <v>4574495.359</v>
+        <v>1189368.793</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="K106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="L106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="M106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="N106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="O106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="P106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="Q106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="R106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="S106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="T106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="U106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="V106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="W106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="X106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="Y106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="Z106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AA106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AB106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AC106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AD106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AE106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AF106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AG106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AH106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AI106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AJ106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AK106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AL106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AM106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AN106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AO106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AP106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AQ106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AR106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
       <c r="AS106" t="n">
-        <v>4678495.932</v>
+        <v>57754.28725</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="K107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="L107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="M107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="N107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="O107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="P107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="Q107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="R107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="S107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="T107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="U107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="V107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="W107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="X107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="Y107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="Z107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AA107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AB107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AC107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AD107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AE107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AF107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AG107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AH107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AI107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AJ107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AK107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AL107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AM107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AN107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AO107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AP107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AQ107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AR107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
       <c r="AS107" t="n">
-        <v>1787230.478</v>
+        <v>3574460.956</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="K115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="L115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="M115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="N115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="O115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="P115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="Q115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="R115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="S115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="T115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="U115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="V115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="W115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="X115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="Y115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="Z115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AA115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AB115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AC115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AD115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AE115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AF115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AG115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AH115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AI115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AJ115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AK115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AL115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AM115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AN115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AO115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AP115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AQ115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AR115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
       <c r="AS115" t="n">
-        <v>363152.0925</v>
+        <v>3631520.925</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/argentina/model_input_variables_argentina_ip_calibrated.xlsx
@@ -1252,112 +1252,112 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>1.056254871</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:45">
@@ -1374,112 +1374,112 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>1.014251859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:45">
@@ -1496,112 +1496,112 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AI6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AP6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>1.01933124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:45">
@@ -1618,112 +1618,112 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AC7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>1.025467683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:45">
@@ -1740,112 +1740,112 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AC8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AI8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>1.015472601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:45">
@@ -1862,112 +1862,112 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="Y9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AI9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.003772407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:45">
@@ -1984,112 +1984,112 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AB10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.023625037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:45">
@@ -2228,112 +2228,112 @@
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AD12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AE12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>1.036925194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:45">
@@ -2350,112 +2350,112 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AD13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AE13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AI13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AP13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0.958907618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:45">
@@ -2472,112 +2472,112 @@
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AI14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>1.016336784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:45">
@@ -2594,112 +2594,112 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="Z15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AA15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AB15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AD15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AE15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>1.000255004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:45">
@@ -3326,112 +3326,112 @@
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="P21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="W21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="X21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="Y21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AA21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AD21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AF21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AG21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AH21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AI21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AJ21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AK21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AL21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AM21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AN21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.082700374</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:45">
@@ -3448,112 +3448,112 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="X22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="Z22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AA22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AB22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AC22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AF22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AG22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AH22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AI22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AK22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AM22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AN22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AR22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.9908770139999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:45">
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>6792529.907</v>
+        <v>32306001.7532959</v>
       </c>
       <c r="K96">
-        <v>6792529.907</v>
+        <v>24693603.2015513</v>
       </c>
       <c r="L96">
-        <v>6792529.907</v>
+        <v>26129009.3887903</v>
       </c>
       <c r="M96">
-        <v>6792529.907</v>
+        <v>14319311.6939247</v>
       </c>
       <c r="N96">
-        <v>6792529.907</v>
+        <v>7067560.43765992</v>
       </c>
       <c r="O96">
-        <v>6792529.907</v>
+        <v>6792529.90654199</v>
       </c>
       <c r="P96">
-        <v>6792529.907</v>
+        <v>6792530</v>
       </c>
       <c r="Q96">
-        <v>6792529.907</v>
+        <v>7403217.60253919</v>
       </c>
       <c r="R96">
-        <v>6792529.907</v>
+        <v>8068809.54085533</v>
       </c>
       <c r="S96">
-        <v>6792529.907</v>
+        <v>8794242.03123082</v>
       </c>
       <c r="T96">
-        <v>6792529.907</v>
+        <v>9584895.08424666</v>
       </c>
       <c r="U96">
-        <v>6792529.907</v>
+        <v>10446632.4044482</v>
       </c>
       <c r="V96">
-        <v>6792529.907</v>
+        <v>11385844.8772205</v>
       </c>
       <c r="W96">
-        <v>6792529.907</v>
+        <v>12409497.9653855</v>
       </c>
       <c r="X96">
-        <v>6792529.907</v>
+        <v>13525183.3670246</v>
       </c>
       <c r="Y96">
-        <v>6792529.907</v>
+        <v>14741175.3176397</v>
       </c>
       <c r="Z96">
-        <v>6792529.907</v>
+        <v>16066491.9542006</v>
       </c>
       <c r="AA96">
-        <v>6792529.907</v>
+        <v>17510962.1961761</v>
       </c>
       <c r="AB96">
-        <v>6792529.907</v>
+        <v>19085298.6395539</v>
       </c>
       <c r="AC96">
-        <v>6792529.907</v>
+        <v>20801177.0044538</v>
       </c>
       <c r="AD96">
-        <v>6792529.907</v>
+        <v>22671322.7255391</v>
       </c>
       <c r="AE96">
-        <v>6792529.907</v>
+        <v>24709605.3274049</v>
       </c>
       <c r="AF96">
-        <v>6792529.907</v>
+        <v>26931141.2848585</v>
       </c>
       <c r="AG96">
-        <v>6792529.907</v>
+        <v>29352406.1309312</v>
       </c>
       <c r="AH96">
-        <v>6792529.907</v>
+        <v>31991356.6440471</v>
       </c>
       <c r="AI96">
-        <v>6792529.907</v>
+        <v>34867564.0205223</v>
       </c>
       <c r="AJ96">
-        <v>6792529.907</v>
+        <v>38002359.02004</v>
       </c>
       <c r="AK96">
-        <v>6792529.907</v>
+        <v>41418990.1605402</v>
       </c>
       <c r="AL96">
-        <v>6792529.907</v>
+        <v>45142796.1357415</v>
       </c>
       <c r="AM96">
-        <v>6792529.907</v>
+        <v>49201393.733993</v>
       </c>
       <c r="AN96">
-        <v>6792529.907</v>
+        <v>53624882.6521132</v>
       </c>
       <c r="AO96">
-        <v>6792529.907</v>
+        <v>58446068.7231742</v>
       </c>
       <c r="AP96">
-        <v>6792529.907</v>
+        <v>63700707.2137508</v>
       </c>
       <c r="AQ96">
-        <v>6792529.907</v>
+        <v>69427767.9949937</v>
       </c>
       <c r="AR96">
-        <v>6792529.907</v>
+        <v>75669724.5541122</v>
       </c>
       <c r="AS96">
-        <v>6792529.907</v>
+        <v>82472868.98965409</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>3851302.296</v>
+        <v>4413318.9874297</v>
       </c>
       <c r="K97">
-        <v>3851302.296</v>
+        <v>3884765.09819544</v>
       </c>
       <c r="L97">
-        <v>3851302.296</v>
+        <v>3936470.15359493</v>
       </c>
       <c r="M97">
-        <v>3851302.296</v>
+        <v>3372509.58179115</v>
       </c>
       <c r="N97">
-        <v>3851302.296</v>
+        <v>3571377.79950367</v>
       </c>
       <c r="O97">
-        <v>3851302.296</v>
+        <v>3851302.29596548</v>
       </c>
       <c r="P97">
-        <v>3851302.296</v>
+        <v>3851302</v>
       </c>
       <c r="Q97">
-        <v>3851302.296</v>
+        <v>3967350.07272065</v>
       </c>
       <c r="R97">
-        <v>3851302.296</v>
+        <v>4086894.92527892</v>
       </c>
       <c r="S97">
-        <v>3851302.296</v>
+        <v>4210041.92322674</v>
       </c>
       <c r="T97">
-        <v>3851302.296</v>
+        <v>4336899.60700839</v>
       </c>
       <c r="U97">
-        <v>3851302.296</v>
+        <v>4467579.78762686</v>
       </c>
       <c r="V97">
-        <v>3851302.296</v>
+        <v>4602197.64519291</v>
       </c>
       <c r="W97">
-        <v>3851302.296</v>
+        <v>4740871.83044355</v>
       </c>
       <c r="X97">
-        <v>3851302.296</v>
+        <v>4883724.56931955</v>
       </c>
       <c r="Y97">
-        <v>3851302.296</v>
+        <v>5030881.77069405</v>
       </c>
       <c r="Z97">
-        <v>3851302.296</v>
+        <v>5182473.13734733</v>
       </c>
       <c r="AA97">
-        <v>3851302.296</v>
+        <v>5338632.28028541</v>
       </c>
       <c r="AB97">
-        <v>3851302.296</v>
+        <v>5499496.83650339</v>
       </c>
       <c r="AC97">
-        <v>3851302.296</v>
+        <v>5665208.59029718</v>
       </c>
       <c r="AD97">
-        <v>3851302.296</v>
+        <v>5835913.59823072</v>
       </c>
       <c r="AE97">
-        <v>3851302.296</v>
+        <v>6011762.31786864</v>
       </c>
       <c r="AF97">
-        <v>3851302.296</v>
+        <v>6192909.7403879</v>
       </c>
       <c r="AG97">
-        <v>3851302.296</v>
+        <v>6379515.52718545</v>
       </c>
       <c r="AH97">
-        <v>3851302.296</v>
+        <v>6571744.15060199</v>
       </c>
       <c r="AI97">
-        <v>3851302.296</v>
+        <v>6769765.03888616</v>
       </c>
       <c r="AJ97">
-        <v>3851302.296</v>
+        <v>6973752.72552678</v>
       </c>
       <c r="AK97">
-        <v>3851302.296</v>
+        <v>7183887.0030848</v>
       </c>
       <c r="AL97">
-        <v>3851302.296</v>
+        <v>7400353.08166055</v>
       </c>
       <c r="AM97">
-        <v>3851302.296</v>
+        <v>7623341.7521359</v>
       </c>
       <c r="AN97">
-        <v>3851302.296</v>
+        <v>7853049.55433533</v>
       </c>
       <c r="AO97">
-        <v>3851302.296</v>
+        <v>8089678.950254</v>
       </c>
       <c r="AP97">
-        <v>3851302.296</v>
+        <v>8333438.50250564</v>
       </c>
       <c r="AQ97">
-        <v>3851302.296</v>
+        <v>8584543.0581473</v>
       </c>
       <c r="AR97">
-        <v>3851302.296</v>
+        <v>8843213.93804336</v>
       </c>
       <c r="AS97">
-        <v>3851302.296</v>
+        <v>9109679.131935289</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>937819.0968000001</v>
+        <v>1679455.15637034</v>
       </c>
       <c r="K98">
-        <v>937819.0968000001</v>
+        <v>1316200.48301081</v>
       </c>
       <c r="L98">
-        <v>937819.0968000001</v>
+        <v>1582709.06754556</v>
       </c>
       <c r="M98">
-        <v>937819.0968000001</v>
+        <v>1136130.88830117</v>
       </c>
       <c r="N98">
-        <v>937819.0968000001</v>
+        <v>1111414.7552005</v>
       </c>
       <c r="O98">
-        <v>937819.0968000001</v>
+        <v>937819.096751419</v>
       </c>
       <c r="P98">
-        <v>937819.0968000001</v>
+        <v>937819.1</v>
       </c>
       <c r="Q98">
-        <v>937819.0968000001</v>
+        <v>926708.14191297</v>
       </c>
       <c r="R98">
-        <v>937819.0968000001</v>
+        <v>915728.822635186</v>
       </c>
       <c r="S98">
-        <v>937819.0968000001</v>
+        <v>904879.5825553189</v>
       </c>
       <c r="T98">
-        <v>937819.0968000001</v>
+        <v>894158.88053978</v>
       </c>
       <c r="U98">
-        <v>937819.0968000001</v>
+        <v>883565.1937138001</v>
       </c>
       <c r="V98">
-        <v>937819.0968000001</v>
+        <v>873097.017245105</v>
       </c>
       <c r="W98">
-        <v>937819.0968000001</v>
+        <v>862752.864130159</v>
       </c>
       <c r="X98">
-        <v>937819.0968000001</v>
+        <v>852531.264982931</v>
       </c>
       <c r="Y98">
-        <v>937819.0968000001</v>
+        <v>842430.767826168</v>
       </c>
       <c r="Z98">
-        <v>937819.0968000001</v>
+        <v>832449.937885148</v>
       </c>
       <c r="AA98">
-        <v>937819.0968000001</v>
+        <v>822587.357383863</v>
       </c>
       <c r="AB98">
-        <v>937819.0968000001</v>
+        <v>812841.62534363</v>
       </c>
       <c r="AC98">
-        <v>937819.0968000001</v>
+        <v>803211.357384078</v>
       </c>
       <c r="AD98">
-        <v>937819.0968000001</v>
+        <v>793695.185526498</v>
       </c>
       <c r="AE98">
-        <v>937819.0968000001</v>
+        <v>784291.757999524</v>
       </c>
       <c r="AF98">
-        <v>937819.0968000001</v>
+        <v>774999.73904711</v>
       </c>
       <c r="AG98">
-        <v>937819.0968000001</v>
+        <v>765817.80873879</v>
       </c>
       <c r="AH98">
-        <v>937819.0968000001</v>
+        <v>756744.662782179</v>
       </c>
       <c r="AI98">
-        <v>937819.0968000001</v>
+        <v>747779.0123377</v>
       </c>
       <c r="AJ98">
-        <v>937819.0968000001</v>
+        <v>738919.583835503</v>
       </c>
       <c r="AK98">
-        <v>937819.0968000001</v>
+        <v>730165.1187945571</v>
       </c>
       <c r="AL98">
-        <v>937819.0968000001</v>
+        <v>721514.37364388</v>
       </c>
       <c r="AM98">
-        <v>937819.0968000001</v>
+        <v>712966.119545892</v>
       </c>
       <c r="AN98">
-        <v>937819.0968000001</v>
+        <v>704519.142221857</v>
       </c>
       <c r="AO98">
-        <v>937819.0968000001</v>
+        <v>696172.241779397</v>
       </c>
       <c r="AP98">
-        <v>937819.0968000001</v>
+        <v>687924.232542046</v>
       </c>
       <c r="AQ98">
-        <v>937819.0968000001</v>
+        <v>679773.942880824</v>
       </c>
       <c r="AR98">
-        <v>937819.0968000001</v>
+        <v>671720.215047808</v>
       </c>
       <c r="AS98">
-        <v>937819.0968000001</v>
+        <v>663761.905011676</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>92851.43696000001</v>
+        <v>171698.326046167</v>
       </c>
       <c r="K99">
-        <v>92851.43696000001</v>
+        <v>130041.637606173</v>
       </c>
       <c r="L99">
-        <v>92851.43696000001</v>
+        <v>146679.360311931</v>
       </c>
       <c r="M99">
-        <v>92851.43696000001</v>
+        <v>117114.591473929</v>
       </c>
       <c r="N99">
-        <v>92851.43696000001</v>
+        <v>108809.331443249</v>
       </c>
       <c r="O99">
-        <v>92851.43696000001</v>
+        <v>92851.4369641107</v>
       </c>
       <c r="P99">
-        <v>92851.43696000001</v>
+        <v>92851.44</v>
       </c>
       <c r="Q99">
-        <v>92851.43696000001</v>
+        <v>89653.22706154161</v>
       </c>
       <c r="R99">
-        <v>92851.43696000001</v>
+        <v>86565.1746763253</v>
       </c>
       <c r="S99">
-        <v>92851.43696000001</v>
+        <v>83583.4884292436</v>
       </c>
       <c r="T99">
-        <v>92851.43696000001</v>
+        <v>80704.5046015733</v>
       </c>
       <c r="U99">
-        <v>92851.43696000001</v>
+        <v>77924.6856692162</v>
       </c>
       <c r="V99">
-        <v>92851.43696000001</v>
+        <v>75240.61595599911</v>
       </c>
       <c r="W99">
-        <v>92851.43696000001</v>
+        <v>72648.997436695</v>
       </c>
       <c r="X99">
-        <v>92851.43696000001</v>
+        <v>70146.6456846051</v>
       </c>
       <c r="Y99">
-        <v>92851.43696000001</v>
+        <v>67730.4859587252</v>
       </c>
       <c r="Z99">
-        <v>92851.43696000001</v>
+        <v>65397.5494256863</v>
       </c>
       <c r="AA99">
-        <v>92851.43696000001</v>
+        <v>63144.9695118293</v>
       </c>
       <c r="AB99">
-        <v>92851.43696000001</v>
+        <v>60969.9783809293</v>
       </c>
       <c r="AC99">
-        <v>92851.43696000001</v>
+        <v>58869.9035332434</v>
       </c>
       <c r="AD99">
-        <v>92851.43696000001</v>
+        <v>56842.1645217018</v>
       </c>
       <c r="AE99">
-        <v>92851.43696000001</v>
+        <v>54884.2697812078</v>
       </c>
       <c r="AF99">
-        <v>92851.43696000001</v>
+        <v>52993.8135671513</v>
       </c>
       <c r="AG99">
-        <v>92851.43696000001</v>
+        <v>51168.4729993721</v>
       </c>
       <c r="AH99">
-        <v>92851.43696000001</v>
+        <v>49406.0052079437</v>
       </c>
       <c r="AI99">
-        <v>92851.43696000001</v>
+        <v>47704.2445772675</v>
       </c>
       <c r="AJ99">
-        <v>92851.43696000001</v>
+        <v>46061.1000850938</v>
       </c>
       <c r="AK99">
-        <v>92851.43696000001</v>
+        <v>44474.5527331973</v>
       </c>
       <c r="AL99">
-        <v>92851.43696000001</v>
+        <v>42942.6530665528</v>
       </c>
       <c r="AM99">
-        <v>92851.43696000001</v>
+        <v>41463.5187779604</v>
       </c>
       <c r="AN99">
-        <v>92851.43696000001</v>
+        <v>40035.3323951786</v>
       </c>
       <c r="AO99">
-        <v>92851.43696000001</v>
+        <v>38656.3390477223</v>
       </c>
       <c r="AP99">
-        <v>92851.43696000001</v>
+        <v>37324.8443105824</v>
       </c>
       <c r="AQ99">
-        <v>92851.43696000001</v>
+        <v>36039.2121222173</v>
       </c>
       <c r="AR99">
-        <v>92851.43696000001</v>
+        <v>34797.8627742576</v>
       </c>
       <c r="AS99">
-        <v>92851.43696000001</v>
+        <v>33599.2709704543</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>128882.2705</v>
+        <v>1363168.3445135</v>
       </c>
       <c r="K100">
-        <v>128882.2705</v>
+        <v>1047891.86513549</v>
       </c>
       <c r="L100">
-        <v>128882.2705</v>
+        <v>1294778.96851205</v>
       </c>
       <c r="M100">
-        <v>128882.2705</v>
+        <v>504935.287410355</v>
       </c>
       <c r="N100">
-        <v>128882.2705</v>
+        <v>87133.60478574839</v>
       </c>
       <c r="O100">
-        <v>128882.2705</v>
+        <v>128882.270461451</v>
       </c>
       <c r="P100">
-        <v>128882.2705</v>
+        <v>128882.3</v>
       </c>
       <c r="Q100">
-        <v>128882.2705</v>
+        <v>118137.928078894</v>
       </c>
       <c r="R100">
-        <v>128882.2705</v>
+        <v>108289.268974668</v>
       </c>
       <c r="S100">
-        <v>128882.2705</v>
+        <v>99261.6509004361</v>
       </c>
       <c r="T100">
-        <v>128882.2705</v>
+        <v>90986.6271401734</v>
       </c>
       <c r="U100">
-        <v>128882.2705</v>
+        <v>83401.4570909032</v>
       </c>
       <c r="V100">
-        <v>128882.2705</v>
+        <v>76448.630568201</v>
       </c>
       <c r="W100">
-        <v>128882.2705</v>
+        <v>70075.4317683347</v>
       </c>
       <c r="X100">
-        <v>128882.2705</v>
+        <v>64233.5395810358</v>
       </c>
       <c r="Y100">
-        <v>128882.2705</v>
+        <v>58878.6612225044</v>
       </c>
       <c r="Z100">
-        <v>128882.2705</v>
+        <v>53970.1964108785</v>
       </c>
       <c r="AA100">
-        <v>128882.2705</v>
+        <v>49470.9295379748</v>
       </c>
       <c r="AB100">
-        <v>128882.2705</v>
+        <v>45346.7475033676</v>
       </c>
       <c r="AC100">
-        <v>128882.2705</v>
+        <v>41566.3810714473</v>
       </c>
       <c r="AD100">
-        <v>128882.2705</v>
+        <v>38101.1677904454</v>
       </c>
       <c r="AE100">
-        <v>128882.2705</v>
+        <v>34924.8346758981</v>
       </c>
       <c r="AF100">
-        <v>128882.2705</v>
+        <v>32013.2990108688</v>
       </c>
       <c r="AG100">
-        <v>128882.2705</v>
+        <v>29344.4857526141</v>
       </c>
       <c r="AH100">
-        <v>128882.2705</v>
+        <v>26898.1601612824</v>
       </c>
       <c r="AI100">
-        <v>128882.2705</v>
+        <v>24655.7743816501</v>
       </c>
       <c r="AJ100">
-        <v>128882.2705</v>
+        <v>22600.3268146891</v>
       </c>
       <c r="AK100">
-        <v>128882.2705</v>
+        <v>20716.2332127315</v>
       </c>
       <c r="AL100">
-        <v>128882.2705</v>
+        <v>18989.2085208851</v>
       </c>
       <c r="AM100">
-        <v>128882.2705</v>
+        <v>17406.1585688293</v>
       </c>
       <c r="AN100">
-        <v>128882.2705</v>
+        <v>15955.0807918091</v>
       </c>
       <c r="AO100">
-        <v>128882.2705</v>
+        <v>14624.9732280979</v>
       </c>
       <c r="AP100">
-        <v>128882.2705</v>
+        <v>13405.7511029581</v>
       </c>
       <c r="AQ100">
-        <v>128882.2705</v>
+        <v>12288.1703666431</v>
       </c>
       <c r="AR100">
-        <v>128882.2705</v>
+        <v>11263.7576067131</v>
       </c>
       <c r="AS100">
-        <v>128882.2705</v>
+        <v>10324.7458032636</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>5268930.916</v>
+        <v>8832381.68726925</v>
       </c>
       <c r="K101">
-        <v>5268930.916</v>
+        <v>6220188.97334277</v>
       </c>
       <c r="L101">
-        <v>5268930.916</v>
+        <v>8172633.07184575</v>
       </c>
       <c r="M101">
-        <v>5268930.916</v>
+        <v>6806979.24027939</v>
       </c>
       <c r="N101">
-        <v>5268930.916</v>
+        <v>5934662.26301053</v>
       </c>
       <c r="O101">
-        <v>5268930.916</v>
+        <v>5268930.91643914</v>
       </c>
       <c r="P101">
-        <v>5268930.916</v>
+        <v>5268931</v>
       </c>
       <c r="Q101">
-        <v>5268930.916</v>
+        <v>5215248.5802825</v>
       </c>
       <c r="R101">
-        <v>5268930.916</v>
+        <v>5162113.10304475</v>
       </c>
       <c r="S101">
-        <v>5268930.916</v>
+        <v>5109518.99577197</v>
       </c>
       <c r="T101">
-        <v>5268930.916</v>
+        <v>5057460.7427249</v>
       </c>
       <c r="U101">
-        <v>5268930.916</v>
+        <v>5005932.88436128</v>
       </c>
       <c r="V101">
-        <v>5268930.916</v>
+        <v>4954930.0167633</v>
       </c>
       <c r="W101">
-        <v>5268930.916</v>
+        <v>4904446.79107089</v>
       </c>
       <c r="X101">
-        <v>5268930.916</v>
+        <v>4854477.91292077</v>
       </c>
       <c r="Y101">
-        <v>5268930.916</v>
+        <v>4805018.14189117</v>
       </c>
       <c r="Z101">
-        <v>5268930.916</v>
+        <v>4756062.29095231</v>
       </c>
       <c r="AA101">
-        <v>5268930.916</v>
+        <v>4707605.22592233</v>
       </c>
       <c r="AB101">
-        <v>5268930.916</v>
+        <v>4659641.86492894</v>
       </c>
       <c r="AC101">
-        <v>5268930.916</v>
+        <v>4612167.17787642</v>
       </c>
       <c r="AD101">
-        <v>5268930.916</v>
+        <v>4565176.18591808</v>
       </c>
       <c r="AE101">
-        <v>5268930.916</v>
+        <v>4518663.96093416</v>
       </c>
       <c r="AF101">
-        <v>5268930.916</v>
+        <v>4472625.62501494</v>
       </c>
       <c r="AG101">
-        <v>5268930.916</v>
+        <v>4427056.34994922</v>
       </c>
       <c r="AH101">
-        <v>5268930.916</v>
+        <v>4381951.35671796</v>
       </c>
       <c r="AI101">
-        <v>5268930.916</v>
+        <v>4337305.91499307</v>
       </c>
       <c r="AJ101">
-        <v>5268930.916</v>
+        <v>4293115.34264132</v>
       </c>
       <c r="AK101">
-        <v>5268930.916</v>
+        <v>4249375.00523336</v>
       </c>
       <c r="AL101">
-        <v>5268930.916</v>
+        <v>4206080.3155576</v>
       </c>
       <c r="AM101">
-        <v>5268930.916</v>
+        <v>4163226.73313922</v>
       </c>
       <c r="AN101">
-        <v>5268930.916</v>
+        <v>4120809.76376393</v>
       </c>
       <c r="AO101">
-        <v>5268930.916</v>
+        <v>4078824.9590067</v>
       </c>
       <c r="AP101">
-        <v>5268930.916</v>
+        <v>4037267.91576518</v>
       </c>
       <c r="AQ101">
-        <v>5268930.916</v>
+        <v>3996134.27579796</v>
       </c>
       <c r="AR101">
-        <v>5268930.916</v>
+        <v>3955419.72526753</v>
       </c>
       <c r="AS101">
-        <v>5268930.916</v>
+        <v>3915119.99428782</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13208,112 +13208,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>108</v>
+        <v>136611059.512769</v>
       </c>
       <c r="K102">
-        <v>100</v>
+        <v>124933183.811049</v>
       </c>
       <c r="L102">
-        <v>100</v>
+        <v>101152075.79222</v>
       </c>
       <c r="M102">
-        <v>100</v>
+        <v>64994541.466807</v>
       </c>
       <c r="N102">
-        <v>100</v>
+        <v>36709011.9973505</v>
       </c>
       <c r="O102">
-        <v>100</v>
+        <v>24675964.3618938</v>
       </c>
       <c r="P102">
-        <v>100</v>
+        <v>24675960</v>
       </c>
       <c r="Q102">
-        <v>100</v>
+        <v>21406265.4279549</v>
       </c>
       <c r="R102">
-        <v>100</v>
+        <v>18569822.5954353</v>
       </c>
       <c r="S102">
-        <v>100</v>
+        <v>16109223.3667068</v>
       </c>
       <c r="T102">
-        <v>100</v>
+        <v>13974666.4861647</v>
       </c>
       <c r="U102">
-        <v>100</v>
+        <v>12122949.6266807</v>
       </c>
       <c r="V102">
-        <v>100</v>
+        <v>10516594.9968493</v>
       </c>
       <c r="W102">
-        <v>100</v>
+        <v>9123090.80987565</v>
       </c>
       <c r="X102">
-        <v>100</v>
+        <v>7914233.26182788</v>
       </c>
       <c r="Y102">
-        <v>100</v>
+        <v>6865555.70123461</v>
       </c>
       <c r="Z102">
-        <v>100</v>
+        <v>5955833.43671481</v>
       </c>
       <c r="AA102">
-        <v>100</v>
+        <v>5166654.16020314</v>
       </c>
       <c r="AB102">
-        <v>100</v>
+        <v>4482045.29135871</v>
       </c>
       <c r="AC102">
-        <v>100</v>
+        <v>3888150.70080111</v>
       </c>
       <c r="AD102">
-        <v>100</v>
+        <v>3372950.26921901</v>
       </c>
       <c r="AE102">
-        <v>100</v>
+        <v>2926016.60637293</v>
       </c>
       <c r="AF102">
-        <v>100</v>
+        <v>2538304.00611051</v>
       </c>
       <c r="AG102">
-        <v>100</v>
+        <v>2201965.36595306</v>
       </c>
       <c r="AH102">
-        <v>100</v>
+        <v>1910193.36580036</v>
       </c>
       <c r="AI102">
-        <v>100</v>
+        <v>1657082.69129311</v>
       </c>
       <c r="AJ102">
-        <v>100</v>
+        <v>1437510.51330486</v>
       </c>
       <c r="AK102">
-        <v>100</v>
+        <v>1247032.80453038</v>
       </c>
       <c r="AL102">
-        <v>100</v>
+        <v>1081794.39467175</v>
       </c>
       <c r="AM102">
-        <v>100</v>
+        <v>938450.943785667</v>
       </c>
       <c r="AN102">
-        <v>100</v>
+        <v>814101.254572904</v>
       </c>
       <c r="AO102">
-        <v>100</v>
+        <v>706228.553645681</v>
       </c>
       <c r="AP102">
-        <v>100</v>
+        <v>612649.553336128</v>
       </c>
       <c r="AQ102">
-        <v>100</v>
+        <v>531470.263083227</v>
       </c>
       <c r="AR102">
-        <v>100</v>
+        <v>461047.656043558</v>
       </c>
       <c r="AS102">
-        <v>100</v>
+        <v>399956.415077868</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>1903256.682</v>
+        <v>3744864.13482992</v>
       </c>
       <c r="K103">
-        <v>1903256.682</v>
+        <v>2645385.59929174</v>
       </c>
       <c r="L103">
-        <v>1903256.682</v>
+        <v>3076957.50364109</v>
       </c>
       <c r="M103">
-        <v>1903256.682</v>
+        <v>2087173.47431527</v>
       </c>
       <c r="N103">
-        <v>1903256.682</v>
+        <v>1968551.93156647</v>
       </c>
       <c r="O103">
-        <v>1903256.682</v>
+        <v>1903256.6820007</v>
       </c>
       <c r="P103">
-        <v>1903256.682</v>
+        <v>1903257</v>
       </c>
       <c r="Q103">
-        <v>1903256.682</v>
+        <v>1865268.29480112</v>
       </c>
       <c r="R103">
-        <v>1903256.682</v>
+        <v>1828037.83807982</v>
       </c>
       <c r="S103">
-        <v>1903256.682</v>
+        <v>1791550.4953178</v>
       </c>
       <c r="T103">
-        <v>1903256.682</v>
+        <v>1755791.43407933</v>
       </c>
       <c r="U103">
-        <v>1903256.682</v>
+        <v>1720746.11798174</v>
       </c>
       <c r="V103">
-        <v>1903256.682</v>
+        <v>1686400.3007862</v>
       </c>
       <c r="W103">
-        <v>1903256.682</v>
+        <v>1652740.02060656</v>
       </c>
       <c r="X103">
-        <v>1903256.682</v>
+        <v>1619751.59423366</v>
       </c>
       <c r="Y103">
-        <v>1903256.682</v>
+        <v>1587421.61157301</v>
       </c>
       <c r="Z103">
-        <v>1903256.682</v>
+        <v>1555736.93019347</v>
       </c>
       <c r="AA103">
-        <v>1903256.682</v>
+        <v>1524684.66998472</v>
       </c>
       <c r="AB103">
-        <v>1903256.682</v>
+        <v>1494252.20792137</v>
       </c>
       <c r="AC103">
-        <v>1903256.682</v>
+        <v>1464427.17293161</v>
       </c>
       <c r="AD103">
-        <v>1903256.682</v>
+        <v>1435197.44086824</v>
       </c>
       <c r="AE103">
-        <v>1903256.682</v>
+        <v>1406551.1295801</v>
       </c>
       <c r="AF103">
-        <v>1903256.682</v>
+        <v>1378476.59408187</v>
       </c>
       <c r="AG103">
-        <v>1903256.682</v>
+        <v>1350962.42182025</v>
       </c>
       <c r="AH103">
-        <v>1903256.682</v>
+        <v>1323997.4280347</v>
       </c>
       <c r="AI103">
-        <v>1903256.682</v>
+        <v>1297570.65121072</v>
       </c>
       <c r="AJ103">
-        <v>1903256.682</v>
+        <v>1271671.34862386</v>
       </c>
       <c r="AK103">
-        <v>1903256.682</v>
+        <v>1246288.99197274</v>
       </c>
       <c r="AL103">
-        <v>1903256.682</v>
+        <v>1221413.2630992</v>
       </c>
       <c r="AM103">
-        <v>1903256.682</v>
+        <v>1197034.04979386</v>
       </c>
       <c r="AN103">
-        <v>1903256.682</v>
+        <v>1173141.44168543</v>
       </c>
       <c r="AO103">
-        <v>1903256.682</v>
+        <v>1149725.72621202</v>
       </c>
       <c r="AP103">
-        <v>1903256.682</v>
+        <v>1126777.38467294</v>
       </c>
       <c r="AQ103">
-        <v>1903256.682</v>
+        <v>1104287.08835925</v>
       </c>
       <c r="AR103">
-        <v>1903256.682</v>
+        <v>1082245.69476153</v>
       </c>
       <c r="AS103">
-        <v>1903256.682</v>
+        <v>1060644.24385341</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>1468061.211</v>
+        <v>2506486.28623638</v>
       </c>
       <c r="K104">
-        <v>1468061.211</v>
+        <v>1982546.82124287</v>
       </c>
       <c r="L104">
-        <v>1468061.211</v>
+        <v>2119847.22121093</v>
       </c>
       <c r="M104">
-        <v>1468061.211</v>
+        <v>1609495.64501998</v>
       </c>
       <c r="N104">
-        <v>1468061.211</v>
+        <v>1523597.21565779</v>
       </c>
       <c r="O104">
-        <v>1468061.211</v>
+        <v>1468061.21081864</v>
       </c>
       <c r="P104">
-        <v>1468061.211</v>
+        <v>1468061</v>
       </c>
       <c r="Q104">
-        <v>1468061.211</v>
+        <v>1450179.12091557</v>
       </c>
       <c r="R104">
-        <v>1468061.211</v>
+        <v>1432515.05403348</v>
       </c>
       <c r="S104">
-        <v>1468061.211</v>
+        <v>1415066.14626816</v>
       </c>
       <c r="T104">
-        <v>1468061.211</v>
+        <v>1397829.77685024</v>
       </c>
       <c r="U104">
-        <v>1468061.211</v>
+        <v>1380803.35693291</v>
       </c>
       <c r="V104">
-        <v>1468061.211</v>
+        <v>1363984.3292031</v>
       </c>
       <c r="W104">
-        <v>1468061.211</v>
+        <v>1347370.16749737</v>
       </c>
       <c r="X104">
-        <v>1468061.211</v>
+        <v>1330958.3764225</v>
       </c>
       <c r="Y104">
-        <v>1468061.211</v>
+        <v>1314746.49098068</v>
       </c>
       <c r="Z104">
-        <v>1468061.211</v>
+        <v>1298732.07619928</v>
       </c>
       <c r="AA104">
-        <v>1468061.211</v>
+        <v>1282912.72676511</v>
       </c>
       <c r="AB104">
-        <v>1468061.211</v>
+        <v>1267286.06666318</v>
       </c>
       <c r="AC104">
-        <v>1468061.211</v>
+        <v>1251849.74881981</v>
       </c>
       <c r="AD104">
-        <v>1468061.211</v>
+        <v>1236601.4547501</v>
       </c>
       <c r="AE104">
-        <v>1468061.211</v>
+        <v>1221538.89420972</v>
       </c>
       <c r="AF104">
-        <v>1468061.211</v>
+        <v>1206659.8048509</v>
       </c>
       <c r="AG104">
-        <v>1468061.211</v>
+        <v>1191961.95188267</v>
       </c>
       <c r="AH104">
-        <v>1468061.211</v>
+        <v>1177443.12773517</v>
       </c>
       <c r="AI104">
-        <v>1468061.211</v>
+        <v>1163101.15172807</v>
       </c>
       <c r="AJ104">
-        <v>1468061.211</v>
+        <v>1148933.86974308</v>
       </c>
       <c r="AK104">
-        <v>1468061.211</v>
+        <v>1134939.15390037</v>
       </c>
       <c r="AL104">
-        <v>1468061.211</v>
+        <v>1121114.902239</v>
       </c>
       <c r="AM104">
-        <v>1468061.211</v>
+        <v>1107459.0384012</v>
       </c>
       <c r="AN104">
-        <v>1468061.211</v>
+        <v>1093969.51132047</v>
       </c>
       <c r="AO104">
-        <v>1468061.211</v>
+        <v>1080644.2949136</v>
       </c>
       <c r="AP104">
-        <v>1468061.211</v>
+        <v>1067481.38777628</v>
       </c>
       <c r="AQ104">
-        <v>1468061.211</v>
+        <v>1054478.81288252</v>
       </c>
       <c r="AR104">
-        <v>1468061.211</v>
+        <v>1041634.61728774</v>
       </c>
       <c r="AS104">
-        <v>1468061.211</v>
+        <v>1028946.87183541</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>80388.33542</v>
+        <v>171537.962831212</v>
       </c>
       <c r="K111">
-        <v>80388.33542</v>
+        <v>134594.158876614</v>
       </c>
       <c r="L111">
-        <v>80388.33542</v>
+        <v>151258.139661231</v>
       </c>
       <c r="M111">
-        <v>80388.33542</v>
+        <v>107359.398293565</v>
       </c>
       <c r="N111">
-        <v>80388.33542</v>
+        <v>95958.64049687469</v>
       </c>
       <c r="O111">
-        <v>80388.33542</v>
+        <v>80388.3354160015</v>
       </c>
       <c r="P111">
-        <v>80388.33542</v>
+        <v>80388.34</v>
       </c>
       <c r="Q111">
-        <v>80388.33542</v>
+        <v>77686.2588581805</v>
       </c>
       <c r="R111">
-        <v>80388.33542</v>
+        <v>75075.0023620369</v>
       </c>
       <c r="S111">
-        <v>80388.33542</v>
+        <v>72551.5176364597</v>
       </c>
       <c r="T111">
-        <v>80388.33542</v>
+        <v>70112.8544221694</v>
       </c>
       <c r="U111">
-        <v>80388.33542</v>
+        <v>67756.1616265067</v>
       </c>
       <c r="V111">
-        <v>80388.33542</v>
+        <v>65478.6839901597</v>
       </c>
       <c r="W111">
-        <v>80388.33542</v>
+        <v>63277.7588659319</v>
       </c>
       <c r="X111">
-        <v>80388.33542</v>
+        <v>61150.8131057852</v>
       </c>
       <c r="Y111">
-        <v>80388.33542</v>
+        <v>59095.3600525181</v>
       </c>
       <c r="Z111">
-        <v>80388.33542</v>
+        <v>57108.9966325626</v>
       </c>
       <c r="AA111">
-        <v>80388.33542</v>
+        <v>55189.4005464999</v>
       </c>
       <c r="AB111">
-        <v>80388.33542</v>
+        <v>53334.327554011</v>
       </c>
       <c r="AC111">
-        <v>80388.33542</v>
+        <v>51541.608850088</v>
       </c>
       <c r="AD111">
-        <v>80388.33542</v>
+        <v>49809.1485294388</v>
       </c>
       <c r="AE111">
-        <v>80388.33542</v>
+        <v>48134.9211361193</v>
       </c>
       <c r="AF111">
-        <v>80388.33542</v>
+        <v>46516.9692955305</v>
       </c>
       <c r="AG111">
-        <v>80388.33542</v>
+        <v>44953.4014260105</v>
       </c>
       <c r="AH111">
-        <v>80388.33542</v>
+        <v>43442.3895273463</v>
       </c>
       <c r="AI111">
-        <v>80388.33542</v>
+        <v>41982.1670436202</v>
       </c>
       <c r="AJ111">
-        <v>80388.33542</v>
+        <v>40571.026797892</v>
       </c>
       <c r="AK111">
-        <v>80388.33542</v>
+        <v>39207.3189963024</v>
       </c>
       <c r="AL111">
-        <v>80388.33542</v>
+        <v>37889.4492992641</v>
       </c>
       <c r="AM111">
-        <v>80388.33542</v>
+        <v>36615.8769574859</v>
       </c>
       <c r="AN111">
-        <v>80388.33542</v>
+        <v>35385.1130106497</v>
       </c>
       <c r="AO111">
-        <v>80388.33542</v>
+        <v>34195.7185466363</v>
       </c>
       <c r="AP111">
-        <v>80388.33542</v>
+        <v>33046.3030192621</v>
       </c>
       <c r="AQ111">
-        <v>80388.33542</v>
+        <v>31935.5226225628</v>
       </c>
       <c r="AR111">
-        <v>80388.33542</v>
+        <v>30862.078719721</v>
       </c>
       <c r="AS111">
-        <v>80388.33542</v>
+        <v>29824.7163248027</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>158408.0709</v>
+        <v>314321.52209058</v>
       </c>
       <c r="K112">
-        <v>158408.0709</v>
+        <v>259839.399097769</v>
       </c>
       <c r="L112">
-        <v>158408.0709</v>
+        <v>272530.306647195</v>
       </c>
       <c r="M112">
-        <v>158408.0709</v>
+        <v>220213.659549553</v>
       </c>
       <c r="N112">
-        <v>158408.0709</v>
+        <v>177993.2022002</v>
       </c>
       <c r="O112">
-        <v>158408.0709</v>
+        <v>158408.070891429</v>
       </c>
       <c r="P112">
-        <v>158408.0709</v>
+        <v>158408.1</v>
       </c>
       <c r="Q112">
-        <v>158408.0709</v>
+        <v>153896.720539616</v>
       </c>
       <c r="R112">
-        <v>158408.0709</v>
+        <v>149513.822795984</v>
       </c>
       <c r="S112">
-        <v>158408.0709</v>
+        <v>145255.747677317</v>
       </c>
       <c r="T112">
-        <v>158408.0709</v>
+        <v>141118.940300837</v>
       </c>
       <c r="U112">
-        <v>158408.0709</v>
+        <v>137099.947024961</v>
       </c>
       <c r="V112">
-        <v>158408.0709</v>
+        <v>133195.412566002</v>
       </c>
       <c r="W112">
-        <v>158408.0709</v>
+        <v>129402.077196992</v>
       </c>
       <c r="X112">
-        <v>158408.0709</v>
+        <v>125716.774026273</v>
       </c>
       <c r="Y112">
-        <v>158408.0709</v>
+        <v>122136.426353598</v>
       </c>
       <c r="Z112">
-        <v>158408.0709</v>
+        <v>118658.045101526</v>
       </c>
       <c r="AA112">
-        <v>158408.0709</v>
+        <v>115278.726319971</v>
       </c>
       <c r="AB112">
-        <v>158408.0709</v>
+        <v>111995.648761821</v>
       </c>
       <c r="AC112">
-        <v>158408.0709</v>
+        <v>108806.071527598</v>
       </c>
       <c r="AD112">
-        <v>158408.0709</v>
+        <v>105707.331777202</v>
       </c>
       <c r="AE112">
-        <v>158408.0709</v>
+        <v>102696.84250682</v>
       </c>
       <c r="AF112">
-        <v>158408.0709</v>
+        <v>99772.0903891465</v>
       </c>
       <c r="AG112">
-        <v>158408.0709</v>
+        <v>96930.6336751199</v>
       </c>
       <c r="AH112">
-        <v>158408.0709</v>
+        <v>94170.1001554075</v>
       </c>
       <c r="AI112">
-        <v>158408.0709</v>
+        <v>91488.1851799521</v>
       </c>
       <c r="AJ112">
-        <v>158408.0709</v>
+        <v>88882.6497339195</v>
       </c>
       <c r="AK112">
-        <v>158408.0709</v>
+        <v>86351.3185684417</v>
       </c>
       <c r="AL112">
-        <v>158408.0709</v>
+        <v>83892.0783845952</v>
       </c>
       <c r="AM112">
-        <v>158408.0709</v>
+        <v>81502.8760690999</v>
       </c>
       <c r="AN112">
-        <v>158408.0709</v>
+        <v>79181.7169802631</v>
       </c>
       <c r="AO112">
-        <v>158408.0709</v>
+        <v>76926.6632827393</v>
       </c>
       <c r="AP112">
-        <v>158408.0709</v>
+        <v>74735.8323297157</v>
       </c>
       <c r="AQ112">
-        <v>158408.0709</v>
+        <v>72607.3950911717</v>
       </c>
       <c r="AR112">
-        <v>158408.0709</v>
+        <v>70539.5746269005</v>
       </c>
       <c r="AS112">
-        <v>158408.0709</v>
+        <v>68530.6446030189</v>
       </c>
     </row>
     <row r="113" spans="1:45">
